--- a/appendix/mean_4ds_accuracy_top4th.xlsx
+++ b/appendix/mean_4ds_accuracy_top4th.xlsx
@@ -525,7 +525,7 @@
         <v>0.628</v>
       </c>
       <c r="G3" t="n">
-        <v>0.644</v>
+        <v>0.643</v>
       </c>
       <c r="H3" t="n">
         <v>0.6899999999999999</v>

--- a/appendix/mean_4ds_accuracy_top4th.xlsx
+++ b/appendix/mean_4ds_accuracy_top4th.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.514</v>
+        <v>0.529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.588</v>
+        <v>0.612</v>
       </c>
       <c r="E5" t="n">
-        <v>0.613</v>
+        <v>0.631</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.708</v>
       </c>
       <c r="G5" t="n">
-        <v>0.694</v>
+        <v>0.705</v>
       </c>
       <c r="H5" t="n">
-        <v>0.707</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="6">
@@ -618,14 +618,14 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.516</v>
+        <v>0.529</v>
       </c>
       <c r="D7" t="n">
         <v>0.628</v>
@@ -634,13 +634,13 @@
         <v>0.636</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.708</v>
       </c>
       <c r="G7" t="n">
-        <v>0.694</v>
+        <v>0.705</v>
       </c>
       <c r="H7" t="n">
-        <v>0.707</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.512</v>
+        <v>0.515</v>
       </c>
       <c r="D8" t="n">
         <v>0.66</v>
       </c>
       <c r="E8" t="n">
-        <v>0.678</v>
+        <v>0.696</v>
       </c>
       <c r="F8" t="n">
-        <v>0.713</v>
+        <v>0.716</v>
       </c>
       <c r="G8" t="n">
-        <v>0.722</v>
+        <v>0.742</v>
       </c>
       <c r="H8" t="n">
-        <v>0.745</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.265</v>
+        <v>0.266</v>
       </c>
       <c r="C9" t="n">
-        <v>0.463</v>
+        <v>0.472</v>
       </c>
       <c r="D9" t="n">
-        <v>0.579</v>
+        <v>0.624</v>
       </c>
       <c r="E9" t="n">
-        <v>0.627</v>
+        <v>0.658</v>
       </c>
       <c r="F9" t="n">
-        <v>0.655</v>
+        <v>0.654</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
